--- a/Excel Files/Individual States/Illinois - Golf Digest Top Courses in each State.xlsx
+++ b/Excel Files/Individual States/Illinois - Golf Digest Top Courses in each State.xlsx
@@ -1494,7 +1494,7 @@
         <v>67</v>
       </c>
       <c r="G26">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="s">
         <v>92</v>
